--- a/Crosswalk_2012/Crosswalk_fecal.xlsx
+++ b/Crosswalk_2012/Crosswalk_fecal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\2018IRFiles\2018_WQAssessment\Crosswalk_2012List\Final_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IR2018\Crosswalk_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="277">
   <si>
     <t>RECORD_ID</t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>Period</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.2</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
@@ -3247,8 +3250,8 @@
       <c r="C98" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>58</v>
+      <c r="D98" t="s">
+        <v>53</v>
       </c>
       <c r="E98" t="s">
         <v>129</v>
@@ -4925,7 +4928,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="E179" t="s">
         <v>129</v>
@@ -5108,7 +5111,7 @@
         <v>7</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="E188" t="s">
         <v>129</v>
@@ -8312,7 +8315,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H345"/>
   <sortState ref="A2:H349">
     <sortCondition ref="A1"/>
   </sortState>
